--- a/ДЗ 6, тестирование новой группы, Калмкова Екатерина.xlsx
+++ b/ДЗ 6, тестирование новой группы, Калмкова Екатерина.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
   <si>
     <t>passed</t>
   </si>
@@ -886,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1001,9 +1001,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1042,13 +1039,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1063,27 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1423,7 +1417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1482,7 +1476,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1571,7 +1565,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1614,7 +1608,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>43971</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1698,43 +1694,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="69" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="65"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="64" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="64" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="71"/>
+      <c r="P6" s="64"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="71"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="71"/>
+      <c r="T6" s="64"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1744,29 +1740,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="73"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="71"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="71"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="71"/>
+      <c r="P7" s="64"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="71"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="71"/>
+      <c r="T7" s="64"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1796,7 +1792,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1832,7 +1830,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1868,7 +1868,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1904,17 +1906,19 @@
       <c r="I11" s="28"/>
       <c r="J11" s="45"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="48"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="31"/>
-      <c r="R11" s="48"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="31"/>
-      <c r="T11" s="48"/>
+      <c r="T11" s="47"/>
       <c r="U11" s="31"/>
-      <c r="V11" s="48"/>
+      <c r="V11" s="47"/>
       <c r="W11" s="31"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="31"/>
@@ -2020,35 +2024,37 @@
     </row>
     <row r="12" spans="1:124" ht="102" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <v>5</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
       <c r="W12" s="31"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="31"/>
@@ -2154,33 +2160,35 @@
     </row>
     <row r="13" spans="1:124" ht="123.95" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <v>6</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
-      <c r="N13" s="54"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="54"/>
+      <c r="P13" s="53"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="54"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="54"/>
+      <c r="T13" s="53"/>
       <c r="U13" s="10"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2445,16 +2453,16 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="3"/>
@@ -2483,14 +2491,14 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G22" s="3"/>
@@ -2519,14 +2527,14 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="56" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="3"/>
@@ -2591,14 +2599,14 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="56" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="3"/>
@@ -2627,14 +2635,14 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="48" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="3"/>
@@ -2879,7 +2887,7 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3727,6 +3735,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3734,15 +3748,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 L13:L43 R13:R43 P13:P43 T13:T43 N13:N43">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 N8:N10 N13:N43 R13:R43 P13:P43 T13:T43 L8:L43">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11:AT12 AH11:AH12 AF11:AF12 Z11:Z12 X11:X12 V11:V12 T11:T12 R11:R12 P11:P12 N11:N12 CJ11:CJ12 CB11:CB12 DJ11:DT12 DH11:DH12 DF11:DF12 DD11:DD12 DB11:DB12 CZ11:CZ12 CX11:CX12 CV11:CV12 CT11:CT12 CR11:CR12 CP11:CP12 CN11:CN12 CL11:CL12 CH11:CH12 CF11:CF12 BZ11:BZ12 BX11:BX12 BV11:BV12 BT11:BT12 BR11:BR12 BP11:BP12 BN11:BN12 BL11:BL12 BJ11:BJ12 BH11:BH12 BF11:BF12 BD11:BD12 BB11:BB12 AZ11:AZ12 AX11:AX12 AV11:AV12 AR11:AR12 AP11:AP12 AN11:AN12 AL11:AL12 AJ11:AJ12 AD11:AD12 AB11:AB12">
